--- a/docs/other_docs/AmazonConnectPackage_ParameterSheet.xlsx
+++ b/docs/other_docs/AmazonConnectPackage_ParameterSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroyou\Desktop\SMBパッケージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC3CDC2-C268-4A1D-9EF5-7E19AE4A21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA2B0F0-E78F-4990-927A-09F651A77B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{0D38F8AF-2E25-440A-AB46-B1AD1DCC665D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{0D38F8AF-2E25-440A-AB46-B1AD1DCC665D}"/>
   </bookViews>
   <sheets>
     <sheet name="パラメータシート" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>パラメータ名</t>
   </si>
@@ -70,9 +70,6 @@
       </rPr>
       <t>のスタックの名前。一部リソース名に使用されます。</t>
     </r>
-  </si>
-  <si>
-    <t>sample</t>
   </si>
   <si>
     <t>InstanceAlias</t>
@@ -143,7 +140,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>QiCAssistantArn</t>
+    <t>作業途中でメモします</t>
   </si>
   <si>
     <r>
@@ -156,17 +153,25 @@
         <rFont val="Amazon Ember Display"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Q in Connect </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ドメインの </t>
+      <t xml:space="preserve">Amazon Connect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インスタンスのリソース名。</t>
+    </r>
+  </si>
+  <si>
+    <t>ApplicationName</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">使用する </t>
     </r>
     <r>
       <rPr>
@@ -175,28 +180,17 @@
         <rFont val="Amazon Ember Display"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Assistant </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リソース名。</t>
-    </r>
-  </si>
-  <si>
-    <t>作業途中でメモします</t>
-  </si>
-  <si>
-    <t>ConnectInstanceArn</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">作成された </t>
+      <t xml:space="preserve">AWS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">アカウントの </t>
     </r>
     <r>
       <rPr>
@@ -205,64 +199,17 @@
         <rFont val="Amazon Ember Display"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Amazon Connect </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インスタンスのリソース名。</t>
-    </r>
-  </si>
-  <si>
-    <t>CaseDomainName</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Amazon Connect Cases </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のドメイン名。</t>
-    </r>
-  </si>
-  <si>
-    <t>CaseTemplateName</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Amazon Connect Cases </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のテンプレート名。</t>
-    </r>
-  </si>
-  <si>
-    <t>sample-case-template</t>
-  </si>
-  <si>
-    <t>CaseTemplateId</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">作成された </t>
+      <t>ID (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数字</t>
     </r>
     <r>
       <rPr>
@@ -271,17 +218,17 @@
         <rFont val="Amazon Ember Display"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Amazon Connect Cases </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">のリソース </t>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桁</t>
     </r>
     <r>
       <rPr>
@@ -290,169 +237,6 @@
         <rFont val="Amazon Ember Display"/>
         <family val="2"/>
       </rPr>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>LexBotName</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Amazon Lex </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ボットの名称。</t>
-    </r>
-  </si>
-  <si>
-    <t>sample-lex-qic</t>
-  </si>
-  <si>
-    <t>LexBotId</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">作成された </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Amazon Ember Display"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Amazon Lex </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ボットのリソース </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Amazon Ember Display"/>
-        <family val="2"/>
-      </rPr>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>ApplicationName</t>
-  </si>
-  <si>
-    <t>エージェントワークスペースに追加するアプリケーション名。</t>
-  </si>
-  <si>
-    <t>MyConnectApp</t>
-  </si>
-  <si>
-    <t>SecurityProfileName</t>
-  </si>
-  <si>
-    <t>CustomAgent</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">使用する </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Amazon Ember Display"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AWS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">アカウントの </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Amazon Ember Display"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Amazon Ember Display"/>
-        <family val="2"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Amazon Ember Display"/>
-        <family val="2"/>
-      </rPr>
       <t>)</t>
     </r>
     <r>
@@ -473,56 +257,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>エージェント専用のセキュリティプロファイル名。
-※通常、Default 値から変更不要</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>sample</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>sample-cc-awstest-20250618</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>arn:aws:wisdom:ap-northeast-1:xxxxxxxxxxxx:assistant/xxxxxxxxxxxx</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>arn:aws:connect:ap-northeast-1:xxxxxxxxxxxx:instance/xxxxxxxxxxxx</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>sample-case-domain</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>sample-case-template</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxx</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>sample-lex-qic</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>MyConnectApp</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CaseDomainName</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CaseTemplateName</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ApplicationName</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -573,10 +308,6 @@
       </rPr>
       <t>インスタンスに紐づけられた電話番号（動作確認で利用）</t>
     </r>
-  </si>
-  <si>
-    <t>CustomAgent</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Step1</t>
@@ -675,82 +406,97 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CloudFront WebACL ARN</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>エージェントワークスペースに追加するアプリケーション名。</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">エージェントワークスペースに追加するアプリケーション用の </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
+    <t>ConnectAIagentsDomainArn</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">作成された Connect AI agents ドメインの </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Amazon Ember Display"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">CloudFront
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">に設定される </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
+      <t xml:space="preserve">Assistant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リソース名。</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ConnectInstanceArn</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CasesDomainId</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amazon Connect Cases </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の ドメイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Amazon Ember Display"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">WebACL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Amazon Ember Display"/>
-        <family val="2"/>
-      </rPr>
-      <t>ARN</t>
-    </r>
-    <rPh sb="26" eb="27">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>arn:aws:wafv2:us-east-1:xxxxx:global/webacl/myapp-webacl/xxxx</t>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1a6975ae-ab1a-4d53-9244-xxxxxxx</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>arn:aws:wisdom:ap-northeast-1:xxxxx:assistant/xxxxx</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>arn:aws:connect:ap-northeast-1:xxxxx:instance/xxxxx</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>+1xxxxx</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sample-pkg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>xxxxxxx</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -758,7 +504,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,17 +614,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Amazon Ember Display"/>
-      <family val="2"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -949,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,12 +724,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1016,8 +748,8 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,18 +1085,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A3E74F-F590-4DCC-B8F8-D3C5604E6327}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.25" defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="3" width="8.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.25" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.125" customWidth="1"/>
-    <col min="5" max="5" width="70.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="92" style="12" customWidth="1"/>
     <col min="6" max="6" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1373,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1392,242 +1122,160 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="21" t="s">
-        <v>56</v>
+      <c r="B2" s="15"/>
+      <c r="C2" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="21" t="s">
-        <v>56</v>
+      <c r="B3" s="16"/>
+      <c r="C3" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="F10" s="14" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1641,18 +1289,18 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.25" defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" style="8" customWidth="1"/>
+    <col min="2" max="3" width="8.25" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="67.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="97.375" style="12" customWidth="1"/>
     <col min="6" max="6" width="37.125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="64.25" style="8"/>
   </cols>
@@ -1662,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1681,27 +1329,27 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="21" t="s">
-        <v>56</v>
+      <c r="B2" s="15"/>
+      <c r="C2" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="21" t="s">
-        <v>56</v>
+      <c r="B3" s="16"/>
+      <c r="C3" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -1715,234 +1363,126 @@
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
+      <c r="E9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="A10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="F10" s="14" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
